--- a/output/checks/dft2_type3_zz0_no_opinion.xlsx
+++ b/output/checks/dft2_type3_zz0_no_opinion.xlsx
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dft2_z_s2_type3_no_op</t>
+          <t>dft2_a_s2_type3_no_op</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dft2_z_s2_type3</t>
+          <t>dft2_a_s2_type3</t>
         </is>
       </c>
     </row>

--- a/output/checks/dft2_type3_zz0_no_opinion.xlsx
+++ b/output/checks/dft2_type3_zz0_no_opinion.xlsx
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dft2_a_s2_type3_no_op</t>
+          <t>dft2_z_s2_type3_no_op</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dft2_a_s2_type3</t>
+          <t>dft2_z_s2_type3</t>
         </is>
       </c>
     </row>
